--- a/peringkat.xlsx
+++ b/peringkat.xlsx
@@ -457,13 +457,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="B2" t="n">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
         <v>83.33333333333333</v>
@@ -471,13 +471,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="B3" t="n">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
         <v>83.33333333333333</v>
@@ -485,13 +485,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B4" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
         <v>83.33333333333333</v>
@@ -499,100 +499,100 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="B5" t="n">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C5" t="n">
         <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>81.04166666666667</v>
+        <v>83.33333333333333</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
+        <v>83</v>
+      </c>
+      <c r="B6" t="n">
         <v>69</v>
       </c>
-      <c r="B6" t="n">
-        <v>86</v>
-      </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>80.15625</v>
+        <v>81.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B7" t="n">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C7" t="n">
         <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>80.15625</v>
+        <v>81.35135135135134</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B8" t="n">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C8" t="n">
         <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>79.9074074074074</v>
+        <v>78.65384615384616</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B9" t="n">
         <v>78</v>
       </c>
       <c r="C9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" t="n">
-        <v>79.42307692307693</v>
+        <v>78.65384615384616</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>75.67164179104478</v>
+        <v>77.60869565217392</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>74.38356164383561</v>
+        <v>75.57692307692308</v>
       </c>
     </row>
   </sheetData>

--- a/peringkat.xlsx
+++ b/peringkat.xlsx
@@ -457,10 +457,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="B2" t="n">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C2" t="n">
         <v>9</v>
@@ -471,10 +471,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="B3" t="n">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C3" t="n">
         <v>10</v>
@@ -485,13 +485,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="B4" t="n">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
         <v>83.33333333333333</v>
@@ -499,13 +499,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="B5" t="n">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
         <v>83.33333333333333</v>
@@ -583,16 +583,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="B11" t="n">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>75.57692307692308</v>
+        <v>76.02689486552569</v>
       </c>
     </row>
   </sheetData>

--- a/peringkat.xlsx
+++ b/peringkat.xlsx
@@ -466,7 +466,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>83.33333333333333</v>
+        <v>80.87467362924282</v>
       </c>
     </row>
     <row r="3">
@@ -480,7 +480,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>83.33333333333333</v>
+        <v>80.87467362924282</v>
       </c>
     </row>
     <row r="4">
@@ -494,105 +494,105 @@
         <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>83.33333333333333</v>
+        <v>80.87467362924282</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="B5" t="n">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>83.33333333333333</v>
+        <v>80.87467362924282</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B6" t="n">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C6" t="n">
         <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>81.5</v>
+        <v>80.87467362924282</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="B7" t="n">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>81.35135135135134</v>
+        <v>80.13221990257479</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B8" t="n">
         <v>78</v>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>78.65384615384616</v>
+        <v>79.42327650111196</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="B9" t="n">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C9" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D9" t="n">
-        <v>78.65384615384616</v>
+        <v>72.72912811224423</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B10" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>77.60869565217392</v>
+        <v>70.50515463917525</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B11" t="n">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="C11" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>76.02689486552569</v>
+        <v>68.13333333333331</v>
       </c>
     </row>
   </sheetData>

--- a/peringkat.xlsx
+++ b/peringkat.xlsx
@@ -441,17 +441,17 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Pelayanan</t>
+          <t>Service</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Makanan</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>DeFuzzy Score</t>
+          <t>Mamdani Score</t>
         </is>
       </c>
     </row>
@@ -466,7 +466,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>80.87467362924282</v>
+        <v>90.08196721311477</v>
       </c>
     </row>
     <row r="3">
@@ -480,7 +480,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>80.87467362924282</v>
+        <v>89.93956486704271</v>
       </c>
     </row>
     <row r="4">
@@ -494,105 +494,105 @@
         <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>80.87467362924282</v>
+        <v>88.77993527508089</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="B5" t="n">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>80.87467362924282</v>
+        <v>88.62629757785467</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="B6" t="n">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>80.87467362924282</v>
+        <v>87.83870967741935</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="B7" t="n">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>80.13221990257479</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B8" t="n">
         <v>78</v>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>79.42327650111196</v>
+        <v>79.06557377049182</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="B9" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C9" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D9" t="n">
-        <v>72.72912811224423</v>
+        <v>79.06557377049182</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B10" t="n">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D10" t="n">
-        <v>70.50515463917525</v>
+        <v>77.77136659436009</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="B11" t="n">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>68.13333333333331</v>
+        <v>77.52830188679242</v>
       </c>
     </row>
   </sheetData>
